--- a/AutoFirmwareUpgrade/ClassLibrary1/bin/Debug/TestDataFiles/CablingDataSet/3U4U3I4I.xlsx
+++ b/AutoFirmwareUpgrade/ClassLibrary1/bin/Debug/TestDataFiles/CablingDataSet/3U4U3I4I.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60562C14-02C8-4687-9A3A-B6B4A774DE17}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EA326C-D93E-40E7-8E2D-02522419F3A4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1426,7 +1426,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1540,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -1554,7 +1554,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -1568,7 +1568,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -1582,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -1596,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1610,7 +1610,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>11</v>
